--- a/SuppXLS/Scen_UC_ELC_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_ELC_MinProd.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27119437-EF40-4BA3-AED2-EC09C96C8BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F9C0A7-AFBC-418F-913C-1827982EC09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
   <sheets>
-    <sheet name="ELCHEAT_LO" sheetId="1" r:id="rId1"/>
+    <sheet name="ELC_LO" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>UC - Each Region/Period</t>
   </si>
@@ -92,21 +92,12 @@
     <t>DMD</t>
   </si>
   <si>
-    <t>RSDHET</t>
-  </si>
-  <si>
     <t>DRSH</t>
   </si>
   <si>
     <t>LO</t>
   </si>
   <si>
-    <t>UC_ELCHEAT_MinProd</t>
-  </si>
-  <si>
-    <t>ELCHEAT</t>
-  </si>
-  <si>
     <t>MANHEAT</t>
   </si>
   <si>
@@ -114,6 +105,12 @@
   </si>
   <si>
     <t>Minimum eLC  penetration for process heat</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>UC_ELC_MinProd</t>
   </si>
 </sst>
 </file>
@@ -624,7 +621,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,7 +686,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>14</v>
@@ -703,22 +700,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I6">
         <v>2030</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -733,7 +730,7 @@
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -741,16 +738,16 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
       </c>
       <c r="I7">
         <v>2050</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>1</v>

--- a/SuppXLS/Scen_UC_ELC_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_ELC_MinProd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E669AD71-DCAD-470D-AD82-D47054E74D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3CF9C6-0645-45F3-8B89-F4BE6D2A38DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_LO" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SuppXLS/Scen_UC_ELC_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_ELC_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3CF9C6-0645-45F3-8B89-F4BE6D2A38DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4021D71A-59A5-4460-845D-60E7A300566B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -107,7 +107,7 @@
     <t>UC_ELC_MinProd</t>
   </si>
   <si>
-    <t>WNDELC,SOLPV</t>
+    <t>WNDELC,SOLELC</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SuppXLS/Scen_UC_ELC_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_ELC_MinProd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4021D71A-59A5-4460-845D-60E7A300566B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA24C36-C7BE-40CC-90E7-2CA01657FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_LO" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>UC_ELC_MinProd</t>
   </si>
   <si>
-    <t>WNDELC,SOLELC</t>
+    <t>RNWELC</t>
   </si>
 </sst>
 </file>

--- a/SuppXLS/Scen_UC_ELC_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_ELC_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA24C36-C7BE-40CC-90E7-2CA01657FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDCBB2A-B389-4879-82F5-6A52D862945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SuppXLS/Scen_UC_ELC_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_ELC_MinProd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDCBB2A-B389-4879-82F5-6A52D862945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764F3A88-6540-42B1-B144-5C8036B78174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_LO" sheetId="1" r:id="rId1"/>
@@ -617,7 +617,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,7 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -744,7 +744,7 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="H7" t="s">
@@ -760,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>-0.5</v>
+        <v>-0.9</v>
       </c>
       <c r="M7">
         <v>0</v>

--- a/SuppXLS/Scen_UC_ELC_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_ELC_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764F3A88-6540-42B1-B144-5C8036B78174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60D9747-352E-4413-BEEF-926D99D78116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>UC - Each Region/Period</t>
   </si>
@@ -617,7 +617,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="O6" sqref="O6:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,7 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
@@ -744,7 +744,7 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>21</v>
       </c>
       <c r="H7" t="s">
@@ -767,6 +767,9 @@
       </c>
       <c r="N7">
         <v>15</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
